--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1907278.96285164</v>
+        <v>1869242.346670363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779176</v>
+        <v>421727.3537779184</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481811</v>
+        <v>7956703.636481814</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7883815.213056156</v>
+        <v>7883815.213056155</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2838073416025</v>
+        <v>152.6431678852762</v>
       </c>
       <c r="G2" t="n">
         <v>14.85476540383092</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>226.7344121026524</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>13.47889771461601</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>149.3669705184725</v>
       </c>
     </row>
     <row r="4">
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11.02353771150029</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.2838073416025</v>
+        <v>76.930448786672</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
-        <v>274.2838073416025</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
         <v>274.2838073416025</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>233.6360368913801</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>42.6910576746819</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.3355501465963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.13315040925564</v>
       </c>
       <c r="D7" t="n">
-        <v>99.15242676576018</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>214.4088038782139</v>
       </c>
       <c r="V8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>13.55696361942517</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>145.560105770766</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>68.86593919519115</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,25 +1299,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>31.93850246840919</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>128.0419375852548</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
         <v>413.6097194764729</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>190.8231963939471</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -1435,10 +1435,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,19 +1457,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>10.77708785252926</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3570519053243</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H12" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>83.51342957218341</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.96274733638199</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>112.2140411623541</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>79.82463171764866</v>
       </c>
       <c r="I14" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T15" t="n">
-        <v>195.6974464808964</v>
+        <v>50.4411006262517</v>
       </c>
       <c r="U15" t="n">
-        <v>79.35700500862784</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.4624989353422</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>143.4656465272897</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647294</v>
+        <v>2.968713886015066</v>
       </c>
       <c r="S17" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>59.49314958703371</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.3570519053243</v>
@@ -1973,10 +1973,10 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5880156630749</v>
+        <v>154.8379018919794</v>
       </c>
       <c r="T18" t="n">
-        <v>50.4411006262517</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U18" t="n">
         <v>224.6133508632724</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>169.1132277079203</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>8.701822518807564</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>115.8186711917619</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
-        <v>157.2246747536534</v>
+        <v>21.93705946587855</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>224.6133508632724</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>86.65238518501074</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>90.83002103235195</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2283,25 +2283,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>83.58419887257701</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>122.9603260571185</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>169.8540650115819</v>
       </c>
       <c r="U23" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,16 +2408,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>133.606938134229</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I24" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>140.9000762328046</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>155.2456885317531</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>302.0760696681976</v>
+        <v>408.5660770863915</v>
       </c>
       <c r="H26" t="n">
         <v>325.3930767845979</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -2651,7 +2651,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>104.0288287853823</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5880156630749</v>
+        <v>128.2342301244892</v>
       </c>
       <c r="T27" t="n">
         <v>195.6974464808964</v>
@@ -2696,7 +2696,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>168.3008309714128</v>
+        <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>13.07204123968286</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>72.32079707418768</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>17.19978753097356</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>157.2246747536534</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>31.01404666062744</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8560777200009522</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
@@ -2888,10 +2888,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I30" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S30" t="n">
         <v>156.5880156630749</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>77.57911839445286</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9462130081922</v>
+        <v>5.408972804184477</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>175.6063564671984</v>
       </c>
       <c r="Y32" t="n">
-        <v>376.341442566969</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3119,13 +3119,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>102.2787150142871</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I33" t="n">
         <v>63.56783007605712</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5880156630749</v>
+        <v>11.33166980843018</v>
       </c>
       <c r="T33" t="n">
         <v>195.6974464808964</v>
@@ -3231,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.9462130081922</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>177.8474706505775</v>
       </c>
       <c r="W34" t="n">
-        <v>150.9763849115753</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>295.3410822699127</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S35" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>245.7619050511115</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>136.2131296253253</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -3359,13 +3359,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H36" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679451</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S36" t="n">
         <v>156.5880156630749</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
-        <v>215.3212831105828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>110.5743369313239</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>170.3262966789586</v>
+        <v>97.29843889960658</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>43.43543629068183</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S39" t="n">
         <v>156.5880156630749</v>
@@ -3720,16 +3720,16 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>83.58419887257701</v>
+        <v>117.7718760717478</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.8619696710236</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -3754,13 +3754,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>325.0765234967304</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5880156630749</v>
+        <v>64.66640004843207</v>
       </c>
       <c r="T42" t="n">
         <v>195.6974464808964</v>
       </c>
       <c r="U42" t="n">
-        <v>79.35700500862784</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>83.58419887257689</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>83.58419887257701</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>275.8381955413035</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>249.0486251655441</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -4106,7 +4106,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5880156630749</v>
+        <v>11.33166980843018</v>
       </c>
       <c r="T45" t="n">
         <v>195.6974464808964</v>
@@ -4115,7 +4115,7 @@
         <v>224.6133508632724</v>
       </c>
       <c r="V45" t="n">
-        <v>86.65238518501074</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>259.6327570162778</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>117.771876071748</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>591.0562198267585</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="C2" t="n">
-        <v>591.0562198267585</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="D2" t="n">
-        <v>314.0018689766549</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="E2" t="n">
-        <v>314.0018689766549</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="F2" t="n">
-        <v>36.94751812655136</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.2410926494321</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007956</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
         <v>586.1689795623909</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U2" t="n">
-        <v>868.110570676862</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V2" t="n">
-        <v>591.0562198267585</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W2" t="n">
-        <v>591.0562198267585</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X2" t="n">
-        <v>591.0562198267585</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y2" t="n">
-        <v>591.0562198267585</v>
+        <v>745.907174392252</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>625.0870020074991</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="C3" t="n">
-        <v>452.3338869293163</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="D3" t="n">
-        <v>304.7455802882602</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="E3" t="n">
-        <v>147.1360512911149</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F3" t="n">
-        <v>147.1360512911149</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G3" t="n">
-        <v>133.521003094533</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
@@ -4412,13 +4412,13 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>29.3360154338131</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>277.4136198757311</v>
+        <v>168.577974491964</v>
       </c>
       <c r="M3" t="n">
-        <v>548.9545891439176</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N3" t="n">
         <v>549.5069725377944</v>
@@ -4448,13 +4448,13 @@
         <v>830.8154377838487</v>
       </c>
       <c r="W3" t="n">
-        <v>830.8154377838487</v>
+        <v>578.300946117182</v>
       </c>
       <c r="X3" t="n">
-        <v>830.8154377838487</v>
+        <v>371.7740475227595</v>
       </c>
       <c r="Y3" t="n">
-        <v>625.0870020074991</v>
+        <v>220.8983197263226</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>33.07759116460122</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>33.07759116460122</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
         <v>21.9427045873282</v>
@@ -4515,25 +4515,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>584.0848816563265</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="C5" t="n">
-        <v>584.0848816563265</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="D5" t="n">
-        <v>584.0848816563265</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="E5" t="n">
-        <v>584.0848816563265</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="F5" t="n">
-        <v>576.7173427870933</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="G5" t="n">
         <v>299.6629919369898</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W5" t="n">
-        <v>861.1392325064301</v>
+        <v>676.7972192224911</v>
       </c>
       <c r="X5" t="n">
-        <v>861.1392325064301</v>
+        <v>399.7428683723875</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.1392325064301</v>
+        <v>399.7428683723875</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>531.0486168298007</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M6" t="n">
-        <v>416.655578933882</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N6" t="n">
-        <v>688.1965482020685</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O6" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
@@ -4682,16 +4682,16 @@
         <v>574.1708973092774</v>
       </c>
       <c r="V6" t="n">
-        <v>339.9196538348783</v>
+        <v>574.1708973092774</v>
       </c>
       <c r="W6" t="n">
-        <v>339.9196538348783</v>
+        <v>574.1708973092774</v>
       </c>
       <c r="X6" t="n">
-        <v>133.3927552404558</v>
+        <v>531.0486168298007</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>531.0486168298007</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>122.096671017389</v>
+        <v>187.3770240139471</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4746,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="8">
@@ -4828,25 +4828,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="V8" t="n">
-        <v>820.0808785163064</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="W8" t="n">
-        <v>806.3869758704224</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="X8" t="n">
-        <v>806.3869758704224</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="Y8" t="n">
         <v>529.3326250203188</v>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>342.2841263065671</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="C9" t="n">
-        <v>169.5310112283843</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="D9" t="n">
-        <v>21.9427045873282</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="E9" t="n">
-        <v>21.9427045873282</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F9" t="n">
         <v>21.9427045873282</v>
@@ -4883,52 +4883,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>168.577974491964</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>440.1189437601505</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N9" t="n">
-        <v>711.659913028337</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O9" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T9" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8839858920107</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="W9" t="n">
-        <v>715.8535760225501</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="X9" t="n">
-        <v>509.3266774281276</v>
+        <v>333.9410456922718</v>
       </c>
       <c r="Y9" t="n">
-        <v>509.3266774281276</v>
+        <v>333.9410456922718</v>
       </c>
     </row>
     <row r="10">
@@ -4947,22 +4947,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>54.20381819178192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>54.20381819178192</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>54.20381819178192</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H10" t="n">
-        <v>54.20381819178192</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>597.8343179118502</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="C11" t="n">
-        <v>468.4990274216939</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="D11" t="n">
-        <v>468.4990274216939</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="E11" t="n">
-        <v>468.4990274216939</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="F11" t="n">
-        <v>468.4990274216939</v>
+        <v>627.3118302031619</v>
       </c>
       <c r="G11" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H11" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
@@ -5065,28 +5065,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S11" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T11" t="n">
-        <v>2315.859550404841</v>
+        <v>2099.250013167591</v>
       </c>
       <c r="U11" t="n">
-        <v>2061.942217170138</v>
+        <v>2099.250013167591</v>
       </c>
       <c r="V11" t="n">
-        <v>1730.090478258502</v>
+        <v>1767.398274255955</v>
       </c>
       <c r="W11" t="n">
-        <v>1376.019653005417</v>
+        <v>1413.327449002869</v>
       </c>
       <c r="X11" t="n">
-        <v>1376.019653005417</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="Y11" t="n">
-        <v>985.4266512364917</v>
+        <v>1038.719773112799</v>
       </c>
     </row>
     <row r="12">
@@ -5105,37 +5105,37 @@
         <v>512.5670185594408</v>
       </c>
       <c r="E12" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F12" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G12" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K12" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L12" t="n">
-        <v>757.4212114061545</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M12" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N12" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O12" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P12" t="n">
         <v>2370.209254145837</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>357.4217947416373</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="C13" t="n">
-        <v>357.4217947416373</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="D13" t="n">
-        <v>357.4217947416373</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="E13" t="n">
-        <v>208.9625784050725</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="F13" t="n">
-        <v>208.9625784050725</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="G13" t="n">
-        <v>208.9625784050725</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="H13" t="n">
-        <v>50.71143199091319</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="I13" t="n">
         <v>50.71143199091319</v>
@@ -5223,28 +5223,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>612.9130584456163</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>612.9130584456163</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>612.9130584456163</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U13" t="n">
-        <v>612.9130584456163</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V13" t="n">
-        <v>357.4217947416373</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="W13" t="n">
-        <v>357.4217947416373</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="X13" t="n">
-        <v>357.4217947416373</v>
+        <v>135.0684315587752</v>
       </c>
       <c r="Y13" t="n">
-        <v>357.4217947416373</v>
+        <v>135.0684315587752</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1011.75842740021</v>
+        <v>1718.217842201916</v>
       </c>
       <c r="C14" t="n">
-        <v>1011.75842740021</v>
+        <v>1347.5258263646</v>
       </c>
       <c r="D14" t="n">
-        <v>651.5516266379893</v>
+        <v>1347.5258263646</v>
       </c>
       <c r="E14" t="n">
-        <v>651.5516266379893</v>
+        <v>960.5379114602692</v>
       </c>
       <c r="F14" t="n">
-        <v>651.5516266379893</v>
+        <v>549.1299685506319</v>
       </c>
       <c r="G14" t="n">
-        <v>538.2041103123792</v>
+        <v>131.3423731198512</v>
       </c>
       <c r="H14" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I14" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K14" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L14" t="n">
         <v>829.7261648535823</v>
@@ -5290,7 +5290,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N14" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O14" t="n">
         <v>2113.071138623965</v>
@@ -5314,16 +5314,16 @@
         <v>2072.288667455001</v>
       </c>
       <c r="V14" t="n">
-        <v>1740.436928543366</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="W14" t="n">
-        <v>1386.36610329028</v>
+        <v>1718.217842201916</v>
       </c>
       <c r="X14" t="n">
-        <v>1011.75842740021</v>
+        <v>1718.217842201916</v>
       </c>
       <c r="Y14" t="n">
-        <v>1011.75842740021</v>
+        <v>1718.217842201916</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>120.4127199202217</v>
+        <v>101.5931163690881</v>
       </c>
       <c r="K15" t="n">
-        <v>366.1489360814929</v>
+        <v>347.3293325303594</v>
       </c>
       <c r="L15" t="n">
-        <v>757.4212114061545</v>
+        <v>738.601607855021</v>
       </c>
       <c r="M15" t="n">
-        <v>1266.817695663801</v>
+        <v>1247.998092112667</v>
       </c>
       <c r="N15" t="n">
-        <v>1805.095121106633</v>
+        <v>1786.275517555499</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.703836711752</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5387,7 +5387,7 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T15" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U15" t="n">
         <v>2045.695642583436</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="C16" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="D16" t="n">
-        <v>50.71143199091319</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="E16" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F16" t="n">
         <v>50.71143199091319</v>
@@ -5466,22 +5466,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T16" t="n">
-        <v>679.5420961591335</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U16" t="n">
-        <v>534.6273016871237</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V16" t="n">
-        <v>279.1360379831448</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W16" t="n">
-        <v>279.1360379831448</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="X16" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.71143199091319</v>
+        <v>451.3135981710606</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1637.586901072978</v>
+        <v>1754.387563557128</v>
       </c>
       <c r="C17" t="n">
-        <v>1266.894885235662</v>
+        <v>1754.387563557128</v>
       </c>
       <c r="D17" t="n">
-        <v>1266.894885235662</v>
+        <v>1754.387563557128</v>
       </c>
       <c r="E17" t="n">
-        <v>879.9069703313312</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="F17" t="n">
-        <v>468.4990274216939</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G17" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H17" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
@@ -5521,13 +5521,13 @@
         <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2471.287047559323</v>
+        <v>2532.572898650695</v>
       </c>
       <c r="S17" t="n">
-        <v>2292.00071659582</v>
+        <v>2532.572898650695</v>
       </c>
       <c r="T17" t="n">
-        <v>2072.288667455001</v>
+        <v>2532.572898650695</v>
       </c>
       <c r="U17" t="n">
-        <v>2072.288667455001</v>
+        <v>2532.572898650695</v>
       </c>
       <c r="V17" t="n">
-        <v>2012.194576963048</v>
+        <v>2532.572898650695</v>
       </c>
       <c r="W17" t="n">
-        <v>2012.194576963048</v>
+        <v>2532.572898650695</v>
       </c>
       <c r="X17" t="n">
-        <v>1637.586901072978</v>
+        <v>2532.572898650695</v>
       </c>
       <c r="Y17" t="n">
-        <v>1637.586901072978</v>
+        <v>2141.979896881769</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.6320219500381</v>
+        <v>834.6762319666548</v>
       </c>
       <c r="C18" t="n">
-        <v>806.8789068718552</v>
+        <v>661.9231168884719</v>
       </c>
       <c r="D18" t="n">
-        <v>659.290600230799</v>
+        <v>514.3348102474158</v>
       </c>
       <c r="E18" t="n">
-        <v>501.6810712336537</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="F18" t="n">
         <v>356.7252812502705</v>
@@ -5606,7 +5606,7 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N18" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
         <v>2045.703836711752</v>
@@ -5621,25 +5621,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S18" t="n">
-        <v>2323.528421865784</v>
+        <v>2325.296213553759</v>
       </c>
       <c r="T18" t="n">
-        <v>2272.5778151726</v>
+        <v>2127.622025189217</v>
       </c>
       <c r="U18" t="n">
-        <v>2045.695642583436</v>
+        <v>1900.739852600053</v>
       </c>
       <c r="V18" t="n">
-        <v>1811.444399109037</v>
+        <v>1666.488609125654</v>
       </c>
       <c r="W18" t="n">
-        <v>1558.92990744237</v>
+        <v>1413.974117458987</v>
       </c>
       <c r="X18" t="n">
-        <v>1352.403008847948</v>
+        <v>1207.447218864565</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.674573071598</v>
+        <v>1001.718783088215</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7382531335418</v>
       </c>
       <c r="C19" t="n">
         <v>50.71143199091319</v>
@@ -5697,28 +5697,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S19" t="n">
-        <v>314.9924154108594</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T19" t="n">
-        <v>306.2026956948922</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U19" t="n">
-        <v>306.2026956948922</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V19" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W19" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X19" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.71143199091319</v>
+        <v>390.5596952627542</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1073.707507198288</v>
+        <v>1132.448770055577</v>
       </c>
       <c r="C20" t="n">
-        <v>1073.707507198288</v>
+        <v>761.7567542182616</v>
       </c>
       <c r="D20" t="n">
-        <v>713.5007064360675</v>
+        <v>401.549953456041</v>
       </c>
       <c r="E20" t="n">
-        <v>326.5127915317367</v>
+        <v>401.549953456041</v>
       </c>
       <c r="F20" t="n">
-        <v>326.5127915317367</v>
+        <v>401.549953456041</v>
       </c>
       <c r="G20" t="n">
-        <v>326.5127915317367</v>
+        <v>401.549953456041</v>
       </c>
       <c r="H20" t="n">
-        <v>209.5242347723812</v>
+        <v>72.87007791604304</v>
       </c>
       <c r="I20" t="n">
         <v>50.71143199091319</v>
@@ -5758,7 +5758,7 @@
         <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
@@ -5788,16 +5788,16 @@
         <v>1818.371334220299</v>
       </c>
       <c r="V20" t="n">
-        <v>1818.371334220299</v>
+        <v>1486.519595308663</v>
       </c>
       <c r="W20" t="n">
-        <v>1464.300508967213</v>
+        <v>1132.448770055577</v>
       </c>
       <c r="X20" t="n">
-        <v>1464.300508967213</v>
+        <v>1132.448770055577</v>
       </c>
       <c r="Y20" t="n">
-        <v>1073.707507198288</v>
+        <v>1132.448770055577</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C21" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D21" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E21" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F21" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G21" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H21" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K21" t="n">
-        <v>181.9669871305373</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L21" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M21" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N21" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O21" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P21" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
@@ -5867,16 +5867,16 @@
         <v>1898.972060912078</v>
       </c>
       <c r="V21" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W21" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X21" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y21" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.4589279831879</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C22" t="n">
         <v>50.71143199091319</v>
@@ -5931,31 +5931,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>431.4413288795672</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>431.4413288795672</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>431.4413288795672</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V22" t="n">
-        <v>431.4413288795672</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="W22" t="n">
-        <v>142.4589279831879</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X22" t="n">
-        <v>142.4589279831879</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.4589279831879</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>333.7265843250262</v>
+        <v>1168.59816349478</v>
       </c>
       <c r="C23" t="n">
-        <v>333.7265843250262</v>
+        <v>797.9061476574645</v>
       </c>
       <c r="D23" t="n">
-        <v>333.7265843250262</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E23" t="n">
-        <v>333.7265843250262</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F23" t="n">
-        <v>333.7265843250262</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
@@ -6001,7 +6001,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N23" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O23" t="n">
         <v>2113.071138623965</v>
@@ -6013,28 +6013,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R23" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S23" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T23" t="n">
-        <v>2072.288667455001</v>
+        <v>2184.715505944195</v>
       </c>
       <c r="U23" t="n">
-        <v>1818.371334220299</v>
+        <v>1930.798172709492</v>
       </c>
       <c r="V23" t="n">
-        <v>1486.519595308663</v>
+        <v>1930.798172709492</v>
       </c>
       <c r="W23" t="n">
-        <v>1486.519595308663</v>
+        <v>1930.798172709492</v>
       </c>
       <c r="X23" t="n">
-        <v>1111.911919418593</v>
+        <v>1556.190496819422</v>
       </c>
       <c r="Y23" t="n">
-        <v>721.3189176496677</v>
+        <v>1556.190496819422</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>354.9574895622956</v>
       </c>
       <c r="F24" t="n">
-        <v>220.0009863964076</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G24" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I24" t="n">
         <v>50.71143199091319</v>
@@ -6071,16 +6071,16 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L24" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M24" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N24" t="n">
-        <v>1620.913172155677</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O24" t="n">
         <v>2045.703836711752</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.71143199091319</v>
+        <v>537.2187868330683</v>
       </c>
       <c r="C25" t="n">
-        <v>50.71143199091319</v>
+        <v>368.1919656904397</v>
       </c>
       <c r="D25" t="n">
-        <v>50.71143199091319</v>
+        <v>368.1919656904397</v>
       </c>
       <c r="E25" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F25" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G25" t="n">
         <v>50.71143199091319</v>
@@ -6168,31 +6168,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q25" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R25" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S25" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T25" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U25" t="n">
-        <v>207.5252587906638</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V25" t="n">
-        <v>207.5252587906638</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W25" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X25" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1095.926593539738</v>
+        <v>1203.49225759852</v>
       </c>
       <c r="C26" t="n">
-        <v>1095.926593539738</v>
+        <v>1203.49225759852</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.926593539738</v>
+        <v>1203.49225759852</v>
       </c>
       <c r="E26" t="n">
-        <v>1095.926593539738</v>
+        <v>1203.49225759852</v>
       </c>
       <c r="F26" t="n">
-        <v>684.5186506301006</v>
+        <v>792.0843146888824</v>
       </c>
       <c r="G26" t="n">
         <v>379.3913075309111</v>
@@ -6226,13 +6226,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J26" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K26" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
@@ -6250,28 +6250,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R26" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S26" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T26" t="n">
-        <v>2072.288667455001</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="U26" t="n">
-        <v>1818.371334220299</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="V26" t="n">
-        <v>1486.519595308663</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="W26" t="n">
-        <v>1486.519595308663</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="X26" t="n">
-        <v>1486.519595308663</v>
+        <v>1981.677592692086</v>
       </c>
       <c r="Y26" t="n">
-        <v>1095.926593539738</v>
+        <v>1591.084590923161</v>
       </c>
     </row>
     <row r="27">
@@ -6293,10 +6293,10 @@
         <v>437.471141863899</v>
       </c>
       <c r="F27" t="n">
-        <v>292.5153518805158</v>
+        <v>292.5153518805159</v>
       </c>
       <c r="G27" t="n">
-        <v>155.7910570266529</v>
+        <v>155.791057026653</v>
       </c>
       <c r="H27" t="n">
         <v>50.71143199091319</v>
@@ -6305,43 +6305,43 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K27" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L27" t="n">
-        <v>573.239262455199</v>
+        <v>687.719923476846</v>
       </c>
       <c r="M27" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N27" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O27" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R27" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S27" t="n">
-        <v>2323.528421865784</v>
+        <v>2406.042074167387</v>
       </c>
       <c r="T27" t="n">
-        <v>2125.854233501242</v>
+        <v>2208.367885802846</v>
       </c>
       <c r="U27" t="n">
-        <v>1898.972060912078</v>
+        <v>1981.485713213681</v>
       </c>
       <c r="V27" t="n">
-        <v>1664.720817437679</v>
+        <v>1747.234469739282</v>
       </c>
       <c r="W27" t="n">
         <v>1494.719978072616</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>201.2221052379024</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="C28" t="n">
-        <v>201.2221052379024</v>
+        <v>666.3380140988477</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>515.8273408518584</v>
       </c>
       <c r="E28" t="n">
-        <v>50.71143199091319</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="F28" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G28" t="n">
         <v>50.71143199091319</v>
@@ -6396,40 +6396,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N28" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O28" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P28" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q28" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R28" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S28" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T28" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U28" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V28" t="n">
-        <v>274.2734154138496</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W28" t="n">
-        <v>201.2221052379024</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="X28" t="n">
-        <v>201.2221052379024</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.2221052379024</v>
+        <v>679.5420961591334</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1686.890522342696</v>
+        <v>1398.92657387502</v>
       </c>
       <c r="C29" t="n">
-        <v>1316.19850650538</v>
+        <v>1398.92657387502</v>
       </c>
       <c r="D29" t="n">
-        <v>955.9917057431599</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="E29" t="n">
-        <v>955.9917057431599</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="F29" t="n">
-        <v>955.9917057431599</v>
+        <v>627.311830203162</v>
       </c>
       <c r="G29" t="n">
-        <v>538.2041103123792</v>
+        <v>209.5242347723813</v>
       </c>
       <c r="H29" t="n">
-        <v>209.5242347723812</v>
+        <v>209.5242347723813</v>
       </c>
       <c r="I29" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370291</v>
       </c>
       <c r="K29" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535818</v>
       </c>
       <c r="M29" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N29" t="n">
         <v>1735.423100897411</v>
@@ -6487,28 +6487,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R29" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S29" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T29" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U29" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V29" t="n">
-        <v>2040.961347595782</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W29" t="n">
-        <v>1686.890522342696</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X29" t="n">
-        <v>1686.890522342696</v>
+        <v>1806.893098402504</v>
       </c>
       <c r="Y29" t="n">
-        <v>1686.890522342696</v>
+        <v>1416.300096633579</v>
       </c>
     </row>
     <row r="30">
@@ -6524,19 +6524,19 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D30" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E30" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F30" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G30" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
@@ -6548,10 +6548,10 @@
         <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M30" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
         <v>1620.913172155677</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.71143199091319</v>
+        <v>674.0784872660178</v>
       </c>
       <c r="C31" t="n">
-        <v>50.71143199091319</v>
+        <v>674.0784872660178</v>
       </c>
       <c r="D31" t="n">
-        <v>50.71143199091319</v>
+        <v>674.0784872660178</v>
       </c>
       <c r="E31" t="n">
-        <v>50.71143199091319</v>
+        <v>525.6192709294529</v>
       </c>
       <c r="F31" t="n">
-        <v>50.71143199091319</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="G31" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H31" t="n">
         <v>50.71143199091319</v>
@@ -6633,40 +6633,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N31" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O31" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P31" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q31" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R31" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S31" t="n">
-        <v>567.8508467335537</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T31" t="n">
-        <v>339.6223487454808</v>
+        <v>674.0784872660178</v>
       </c>
       <c r="U31" t="n">
-        <v>50.71143199091319</v>
+        <v>674.0784872660178</v>
       </c>
       <c r="V31" t="n">
-        <v>50.71143199091319</v>
+        <v>674.0784872660178</v>
       </c>
       <c r="W31" t="n">
-        <v>50.71143199091319</v>
+        <v>674.0784872660178</v>
       </c>
       <c r="X31" t="n">
-        <v>50.71143199091319</v>
+        <v>674.0784872660178</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.71143199091319</v>
+        <v>674.0784872660178</v>
       </c>
     </row>
     <row r="32">
@@ -6724,28 +6724,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R32" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T32" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U32" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V32" t="n">
-        <v>1960.148977684184</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W32" t="n">
-        <v>1960.148977684184</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="X32" t="n">
-        <v>1960.148977684184</v>
+        <v>2358.191441497984</v>
       </c>
       <c r="Y32" t="n">
-        <v>1580.006106404418</v>
+        <v>1967.598439729059</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C33" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D33" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E33" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F33" t="n">
-        <v>251.6456562145308</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G33" t="n">
-        <v>114.9213613606679</v>
+        <v>220.0009863964077</v>
       </c>
       <c r="H33" t="n">
         <v>114.9213613606679</v>
@@ -6782,13 +6782,13 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K33" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L33" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M33" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N33" t="n">
         <v>1620.913172155677</v>
@@ -6806,25 +6806,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S33" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T33" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U33" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V33" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W33" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X33" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y33" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="34">
@@ -6870,37 +6870,37 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N34" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O34" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q34" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R34" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S34" t="n">
-        <v>431.4413288795672</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T34" t="n">
-        <v>203.2128308914943</v>
+        <v>451.3135981710604</v>
       </c>
       <c r="U34" t="n">
-        <v>203.2128308914943</v>
+        <v>451.3135981710604</v>
       </c>
       <c r="V34" t="n">
-        <v>203.2128308914943</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="W34" t="n">
-        <v>50.71143199091319</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="X34" t="n">
-        <v>50.71143199091319</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="Y34" t="n">
         <v>50.71143199091319</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>998.0038460404777</v>
+        <v>1506.911171396494</v>
       </c>
       <c r="C35" t="n">
-        <v>627.3118302031619</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="D35" t="n">
-        <v>627.3118302031619</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E35" t="n">
-        <v>627.3118302031619</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F35" t="n">
-        <v>627.3118302031619</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G35" t="n">
-        <v>209.5242347723812</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H35" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="I35" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K35" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535818</v>
       </c>
       <c r="M35" t="n">
-        <v>1286.636576300462</v>
+        <v>1286.636576300461</v>
       </c>
       <c r="N35" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O35" t="n">
-        <v>2113.071138623965</v>
+        <v>2113.071138623964</v>
       </c>
       <c r="P35" t="n">
-        <v>2398.446208459429</v>
+        <v>2398.446208459428</v>
       </c>
       <c r="Q35" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S35" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T35" t="n">
-        <v>2356.285268582156</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U35" t="n">
-        <v>2356.285268582156</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.433529670521</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="W35" t="n">
-        <v>1776.189181134044</v>
+        <v>1897.504173165419</v>
       </c>
       <c r="X35" t="n">
-        <v>1776.189181134044</v>
+        <v>1897.504173165419</v>
       </c>
       <c r="Y35" t="n">
-        <v>1385.596179365119</v>
+        <v>1506.911171396494</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>832.9084402786798</v>
+        <v>832.9084402786793</v>
       </c>
       <c r="C36" t="n">
-        <v>660.1553252004969</v>
+        <v>660.1553252004965</v>
       </c>
       <c r="D36" t="n">
-        <v>522.566305376936</v>
+        <v>512.5670185594404</v>
       </c>
       <c r="E36" t="n">
-        <v>364.9567763797908</v>
+        <v>354.9574895622951</v>
       </c>
       <c r="F36" t="n">
-        <v>220.0009863964076</v>
+        <v>210.001699578912</v>
       </c>
       <c r="G36" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504905</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="I36" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="J36" t="n">
-        <v>120.4127199202217</v>
+        <v>120.4127199202216</v>
       </c>
       <c r="K36" t="n">
         <v>366.1489360814929</v>
@@ -7025,13 +7025,13 @@
         <v>757.4212114061545</v>
       </c>
       <c r="M36" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N36" t="n">
         <v>1620.913172155677</v>
       </c>
       <c r="O36" t="n">
-        <v>2045.703836711752</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P36" t="n">
         <v>2370.209254145837</v>
@@ -7040,10 +7040,10 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R36" t="n">
-        <v>2481.698134656769</v>
+        <v>2481.698134656768</v>
       </c>
       <c r="S36" t="n">
-        <v>2323.528421865784</v>
+        <v>2323.528421865783</v>
       </c>
       <c r="T36" t="n">
         <v>2125.854233501242</v>
@@ -7058,10 +7058,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X36" t="n">
-        <v>1205.67942717659</v>
+        <v>1205.679427176589</v>
       </c>
       <c r="Y36" t="n">
-        <v>999.9509914002402</v>
+        <v>999.9509914002398</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="C37" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="D37" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="E37" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="F37" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="G37" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="H37" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="I37" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="J37" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
       <c r="K37" t="n">
         <v>100.3216812543103</v>
@@ -7107,40 +7107,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N37" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O37" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P37" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q37" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R37" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S37" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T37" t="n">
-        <v>268.2076775571585</v>
+        <v>451.3135981710604</v>
       </c>
       <c r="U37" t="n">
-        <v>268.2076775571585</v>
+        <v>162.4026814164928</v>
       </c>
       <c r="V37" t="n">
-        <v>50.71143199091319</v>
+        <v>162.4026814164928</v>
       </c>
       <c r="W37" t="n">
-        <v>50.71143199091319</v>
+        <v>162.4026814164928</v>
       </c>
       <c r="X37" t="n">
-        <v>50.71143199091319</v>
+        <v>162.4026814164928</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091318</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1550.658872745846</v>
+        <v>1709.087038344612</v>
       </c>
       <c r="C38" t="n">
-        <v>1179.96685690853</v>
+        <v>1338.395022507296</v>
       </c>
       <c r="D38" t="n">
-        <v>1179.96685690853</v>
+        <v>978.1882217450752</v>
       </c>
       <c r="E38" t="n">
-        <v>792.9789420041989</v>
+        <v>978.1882217450752</v>
       </c>
       <c r="F38" t="n">
-        <v>381.5709990945616</v>
+        <v>566.7802788354379</v>
       </c>
       <c r="G38" t="n">
-        <v>381.5709990945616</v>
+        <v>148.9926834046572</v>
       </c>
       <c r="H38" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K38" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724816</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S38" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T38" t="n">
-        <v>2315.859550404841</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U38" t="n">
-        <v>2315.859550404841</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V38" t="n">
-        <v>2315.859550404841</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W38" t="n">
-        <v>2315.859550404841</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X38" t="n">
-        <v>1941.251874514771</v>
+        <v>2096.679371669253</v>
       </c>
       <c r="Y38" t="n">
-        <v>1550.658872745846</v>
+        <v>2096.679371669253</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>886.7819051675707</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C39" t="n">
-        <v>714.0287900893879</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D39" t="n">
-        <v>566.4404834483319</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E39" t="n">
-        <v>408.8309544511866</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F39" t="n">
-        <v>263.8751644678034</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G39" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
@@ -7277,28 +7277,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R39" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T39" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U39" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V39" t="n">
-        <v>1718.59428232657</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W39" t="n">
-        <v>1466.079790659903</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X39" t="n">
-        <v>1259.552892065481</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y39" t="n">
-        <v>1053.824456289131</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="40">
@@ -7344,37 +7344,37 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N40" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O40" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P40" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q40" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R40" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S40" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T40" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U40" t="n">
-        <v>390.6311794045659</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="V40" t="n">
-        <v>135.1399157005869</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="W40" t="n">
-        <v>50.71143199091319</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="X40" t="n">
-        <v>50.71143199091319</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="Y40" t="n">
         <v>50.71143199091319</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2067.498784725884</v>
+        <v>1537.674215311274</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.806768888568</v>
+        <v>1537.674215311274</v>
       </c>
       <c r="D41" t="n">
-        <v>1336.599968126347</v>
+        <v>1177.467414549054</v>
       </c>
       <c r="E41" t="n">
-        <v>949.6120532220164</v>
+        <v>790.4794996447226</v>
       </c>
       <c r="F41" t="n">
-        <v>538.2041103123792</v>
+        <v>379.0715567350854</v>
       </c>
       <c r="G41" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H41" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I41" t="n">
         <v>50.71143199091319</v>
@@ -7441,22 +7441,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T41" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U41" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="W41" t="n">
-        <v>2181.500774292574</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="X41" t="n">
-        <v>2181.500774292574</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="Y41" t="n">
-        <v>2181.500774292574</v>
+        <v>1925.266548635916</v>
       </c>
     </row>
     <row r="42">
@@ -7490,16 +7490,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K42" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L42" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M42" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N42" t="n">
         <v>1620.913172155677</v>
@@ -7514,13 +7514,13 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R42" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S42" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T42" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U42" t="n">
         <v>2045.695642583436</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1991.169419087113</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C43" t="n">
-        <v>1991.169419087113</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D43" t="n">
-        <v>1991.169419087113</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E43" t="n">
-        <v>1991.169419087113</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F43" t="n">
-        <v>1991.169419087113</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K43" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L43" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M43" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N43" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O43" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U43" t="n">
-        <v>2246.660682791092</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V43" t="n">
-        <v>1991.169419087113</v>
+        <v>135.1399157005869</v>
       </c>
       <c r="W43" t="n">
-        <v>1991.169419087113</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X43" t="n">
-        <v>1991.169419087113</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y43" t="n">
-        <v>1991.169419087113</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1028.707763308938</v>
+        <v>1748.842306878762</v>
       </c>
       <c r="C44" t="n">
-        <v>658.0157474716217</v>
+        <v>1378.150291041447</v>
       </c>
       <c r="D44" t="n">
-        <v>658.0157474716217</v>
+        <v>1017.943490279226</v>
       </c>
       <c r="E44" t="n">
-        <v>379.3913075309111</v>
+        <v>630.955575374895</v>
       </c>
       <c r="F44" t="n">
         <v>379.3913075309111</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.571599545659</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W44" t="n">
-        <v>2181.500774292574</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="X44" t="n">
-        <v>1806.893098402504</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="Y44" t="n">
-        <v>1416.300096633579</v>
+        <v>1748.842306878762</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>757.4212114061545</v>
       </c>
       <c r="M45" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N45" t="n">
         <v>1620.913172155677</v>
@@ -7754,13 +7754,13 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T45" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U45" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V45" t="n">
         <v>1811.444399109037</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I46" t="n">
         <v>50.71143199091319</v>
@@ -7836,22 +7836,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>451.3135981710606</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U46" t="n">
-        <v>189.0582880536082</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V46" t="n">
-        <v>189.0582880536082</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W46" t="n">
-        <v>189.0582880536082</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="X46" t="n">
-        <v>189.0582880536082</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="Y46" t="n">
-        <v>189.0582880536082</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155703</v>
+        <v>249.0736414352243</v>
       </c>
       <c r="N3" t="n">
-        <v>128.6161323053679</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
@@ -8236,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8294,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N6" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>269.5263315788349</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8531,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O9" t="n">
-        <v>245.8259630674526</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8786,7 +8786,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>145.1589067078019</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
         <v>218.4803792452831</v>
@@ -9005,7 +9005,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>112.1249761973247</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9020,13 +9020,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9254,10 +9254,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O18" t="n">
-        <v>223.5744393700659</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
@@ -9479,10 +9479,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K21" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9719,7 +9719,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9731,7 +9731,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O24" t="n">
-        <v>409.6168120477987</v>
+        <v>223.5744393700659</v>
       </c>
       <c r="P24" t="n">
         <v>331.2012793855346</v>
@@ -9953,13 +9953,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>199.6315864378646</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10196,13 +10196,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
-        <v>199.6315864378646</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10430,7 +10430,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
@@ -10439,7 +10439,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10673,10 +10673,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>484.3332662999999</v>
+        <v>298.2908936222667</v>
       </c>
       <c r="N36" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11147,10 +11147,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>368.6962349650029</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11384,10 +11384,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>298.290893622267</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>238.9431580936879</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
@@ -23269,7 +23269,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>26.69173225546351</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
         <v>146.1590214098045</v>
@@ -23433,10 +23433,10 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>53.44995792988465</v>
       </c>
       <c r="J13" t="n">
         <v>49.35397375491781</v>
@@ -23463,7 +23463,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
-        <v>82.31689553450985</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
         <v>212.6245410698995</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23497,25 +23497,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>301.3956783141188</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>245.5684450669492</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.6870717512358</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="U15" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>149.0055665145194</v>
+        <v>45.54306757917715</v>
       </c>
       <c r="E16" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3311041893321</v>
@@ -23706,19 +23706,19 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>142.5561610597322</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
         <v>218.7486738677682</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>60.67299258045787</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>269.0400719354856</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.750113771095499</v>
       </c>
       <c r="T18" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>10.97046378276355</v>
       </c>
       <c r="C19" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -23937,22 +23937,22 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>217.2443904893846</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23971,13 +23971,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
@@ -23986,10 +23986,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
-        <v>209.574405592836</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>135.2876152877748</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>145.2563458546444</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>76.50653189885038</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>290.6493934193543</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>47.6608636378287</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>9.899293949320253</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>39.18361525787924</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.6686349500177</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S25" t="n">
         <v>212.6245410698995</v>
@@ -24420,13 +24420,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>130.8468883556624</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>111.5336498082752</v>
+        <v>5.043642390081345</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>28.35378553858567</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>81.6885157785872</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>154.2645116915195</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.6686349500177</v>
@@ -24624,7 +24624,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J28" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
         <v>212.6245410698995</v>
@@ -24660,10 +24660,10 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>213.7717798132279</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>366.5166224604215</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,13 +24691,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>297.5191748618919</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24764,7 +24764,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24846,22 +24846,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J31" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R31" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
-        <v>135.0454226754466</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.5372402040077</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
         <v>217.5149286494106</v>
@@ -24976,16 +24976,16 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>195.255242663971</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.34562918426678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>41.22751706926218</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J34" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R34" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>75.0888804163616</v>
       </c>
       <c r="W34" t="n">
-        <v>135.1161919758403</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>71.64401340902992</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
@@ -25165,16 +25165,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>104.768211949443</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>9.89929394932031</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>81.68851577858786</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J37" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S37" t="n">
         <v>212.6245410698995</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>37.61506795635631</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
@@ -25380,7 +25380,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>108.1743369364444</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>155.0667801056393</v>
+        <v>228.0946378849913</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
         <v>251.3781599023558</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>91.92161561464246</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J40" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>202.5083780148385</v>
+        <v>168.3207008156677</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.8544403203714</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>88.53319597974246</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3781599023558</v>
@@ -25690,13 +25690,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>91.92161561464282</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>83.74690531675519</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
         <v>156.6686349500177</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>107.279840213984</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>158.2452383149968</v>
       </c>
       <c r="G44" t="n">
         <v>413.6097194764729</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
@@ -25924,13 +25924,13 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>145.2563458546444</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
         <v>49.35397375491781</v>
@@ -26076,10 +26076,10 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
-        <v>26.38905057074408</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26088,10 +26088,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>108.3684838605613</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>612717.4999678273</v>
+        <v>612717.4999678275</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>612717.4999678275</v>
+        <v>612717.4999678273</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612717.4999678275</v>
+        <v>612717.4999678273</v>
       </c>
     </row>
     <row r="16">
@@ -26316,37 +26316,37 @@
         <v>569743.5860304557</v>
       </c>
       <c r="C2" t="n">
+        <v>569743.5860304558</v>
+      </c>
+      <c r="D2" t="n">
         <v>569743.5860304557</v>
       </c>
-      <c r="D2" t="n">
-        <v>569743.5860304558</v>
-      </c>
       <c r="E2" t="n">
+        <v>384087.16784588</v>
+      </c>
+      <c r="F2" t="n">
+        <v>384087.16784588</v>
+      </c>
+      <c r="G2" t="n">
         <v>384087.1678458801</v>
       </c>
-      <c r="F2" t="n">
-        <v>384087.1678458799</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>384087.16784588</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>384087.1678458801</v>
-      </c>
-      <c r="I2" t="n">
-        <v>384087.16784588</v>
       </c>
       <c r="J2" t="n">
         <v>384087.1678458801</v>
       </c>
       <c r="K2" t="n">
+        <v>384087.1678458801</v>
+      </c>
+      <c r="L2" t="n">
+        <v>384087.1678458801</v>
+      </c>
+      <c r="M2" t="n">
         <v>384087.1678458799</v>
-      </c>
-      <c r="L2" t="n">
-        <v>384087.16784588</v>
-      </c>
-      <c r="M2" t="n">
-        <v>384087.1678458801</v>
       </c>
       <c r="N2" t="n">
         <v>384087.1678458801</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853742</v>
+        <v>89616.02429853739</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301983.934015274</v>
+        <v>301983.9340152739</v>
       </c>
       <c r="C4" t="n">
         <v>301983.934015274</v>
       </c>
       <c r="D4" t="n">
-        <v>301983.934015274</v>
+        <v>301983.9340152739</v>
       </c>
       <c r="E4" t="n">
         <v>37068.93740564659</v>
@@ -26502,7 +26502,7 @@
         <v>45292.2611156748</v>
       </c>
       <c r="M5" t="n">
-        <v>45292.2611156748</v>
+        <v>45292.26111567479</v>
       </c>
       <c r="N5" t="n">
         <v>45292.2611156748</v>
@@ -26524,46 +26524,46 @@
         <v>125536.7841610724</v>
       </c>
       <c r="C6" t="n">
+        <v>217455.5965288124</v>
+      </c>
+      <c r="D6" t="n">
         <v>217455.5965288123</v>
       </c>
-      <c r="D6" t="n">
-        <v>217455.5965288124</v>
-      </c>
       <c r="E6" t="n">
-        <v>-54463.46056212146</v>
+        <v>-61094.04692585642</v>
       </c>
       <c r="F6" t="n">
-        <v>301725.9693245585</v>
+        <v>295095.3829608238</v>
       </c>
       <c r="G6" t="n">
-        <v>301725.9693245586</v>
+        <v>295095.3829608238</v>
       </c>
       <c r="H6" t="n">
-        <v>301725.9693245587</v>
+        <v>295095.3829608238</v>
       </c>
       <c r="I6" t="n">
-        <v>301725.9693245586</v>
+        <v>295095.3829608239</v>
       </c>
       <c r="J6" t="n">
-        <v>229961.2568364725</v>
+        <v>223330.6704727376</v>
       </c>
       <c r="K6" t="n">
-        <v>301725.9693245585</v>
+        <v>295095.3829608239</v>
       </c>
       <c r="L6" t="n">
-        <v>301725.9693245586</v>
+        <v>295095.3829608238</v>
       </c>
       <c r="M6" t="n">
-        <v>212109.9450260213</v>
+        <v>205479.3586622862</v>
       </c>
       <c r="N6" t="n">
-        <v>301725.9693245587</v>
+        <v>295095.3829608238</v>
       </c>
       <c r="O6" t="n">
-        <v>301725.9693245587</v>
+        <v>295095.3829608238</v>
       </c>
       <c r="P6" t="n">
-        <v>301725.9693245586</v>
+        <v>295095.3829608238</v>
       </c>
     </row>
   </sheetData>
@@ -26822,7 +26822,7 @@
         <v>633.8928998864149</v>
       </c>
       <c r="M4" t="n">
-        <v>633.8928998864149</v>
+        <v>633.8928998864147</v>
       </c>
       <c r="N4" t="n">
         <v>633.8928998864149</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448124</v>
+        <v>359.6090925448123</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D2" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389384</v>
+        <v>254.6506955952646</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>24.74335147389203</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27460,25 +27460,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>122.5443124904263</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27520,13 +27520,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>54.30418090011352</v>
       </c>
     </row>
     <row r="4">
@@ -27551,13 +27551,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7350090859033</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
         <v>88.83884492777894</v>
@@ -27587,7 +27587,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.4326026497926</v>
+        <v>306.785961204723</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>63.86009604655089</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
@@ -27678,10 +27678,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>116.8940801091745</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
         <v>386.6870717512358</v>
@@ -27697,7 +27697,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
@@ -27709,13 +27709,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,16 +27754,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>161.7705719337964</v>
       </c>
       <c r="Y6" t="n">
-        <v>93.33560127198974</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -27776,10 +27776,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C7" t="n">
-        <v>167.3365529312023</v>
+        <v>152.2034025219467</v>
       </c>
       <c r="D7" t="n">
-        <v>49.85313974875918</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.9746241731992</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
         <v>173.3911476697823</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>37.06895969833053</v>
       </c>
       <c r="V8" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>336.9731533811294</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -27934,16 +27934,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>104.429240979234</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>135.5956904132871</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -28019,25 +28019,25 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>3.750872006333083</v>
       </c>
       <c r="H10" t="n">
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>121.8200443289944</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -32943,13 +32943,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I26" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J26" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K26" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L26" t="n">
         <v>196.477585181553</v>
@@ -32958,7 +32958,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N26" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O26" t="n">
         <v>209.776231993146</v>
@@ -32970,16 +32970,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R26" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S26" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T26" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H27" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I27" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J27" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K27" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M27" t="n">
         <v>168.7893200645195</v>
@@ -33040,16 +33040,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O27" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P27" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R27" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S27" t="n">
         <v>12.37359824256949</v>
@@ -33058,7 +33058,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H28" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I28" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J28" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K28" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L28" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M28" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N28" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O28" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P28" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R28" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S28" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T28" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,13 +33180,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I29" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J29" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K29" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L29" t="n">
         <v>196.477585181553</v>
@@ -33195,7 +33195,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N29" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O29" t="n">
         <v>209.776231993146</v>
@@ -33207,16 +33207,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R29" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S29" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T29" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H30" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I30" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J30" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K30" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M30" t="n">
         <v>168.7893200645195</v>
@@ -33277,16 +33277,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O30" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P30" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R30" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S30" t="n">
         <v>12.37359824256949</v>
@@ -33295,7 +33295,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H31" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I31" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J31" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K31" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L31" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M31" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N31" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O31" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P31" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R31" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S31" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T31" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,13 +33417,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I32" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J32" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K32" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L32" t="n">
         <v>196.477585181553</v>
@@ -33432,7 +33432,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N32" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O32" t="n">
         <v>209.776231993146</v>
@@ -33444,16 +33444,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R32" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S32" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T32" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H33" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I33" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J33" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K33" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M33" t="n">
         <v>168.7893200645195</v>
@@ -33514,16 +33514,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O33" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P33" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R33" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S33" t="n">
         <v>12.37359824256949</v>
@@ -33532,7 +33532,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H34" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I34" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J34" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K34" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L34" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M34" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N34" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O34" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P34" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R34" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S34" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T34" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,13 +33654,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I35" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J35" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K35" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L35" t="n">
         <v>196.477585181553</v>
@@ -33669,7 +33669,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N35" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O35" t="n">
         <v>209.776231993146</v>
@@ -33681,16 +33681,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R35" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S35" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T35" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H36" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I36" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J36" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K36" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M36" t="n">
         <v>168.7893200645195</v>
@@ -33751,16 +33751,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O36" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P36" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R36" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S36" t="n">
         <v>12.37359824256949</v>
@@ -33769,7 +33769,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H37" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I37" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J37" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K37" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L37" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M37" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N37" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O37" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P37" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R37" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S37" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T37" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,13 +33891,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I38" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J38" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K38" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L38" t="n">
         <v>196.477585181553</v>
@@ -33906,7 +33906,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N38" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O38" t="n">
         <v>209.776231993146</v>
@@ -33918,16 +33918,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R38" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S38" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T38" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H39" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I39" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J39" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K39" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M39" t="n">
         <v>168.7893200645195</v>
@@ -33988,16 +33988,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O39" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P39" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q39" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R39" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S39" t="n">
         <v>12.37359824256949</v>
@@ -34006,7 +34006,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H40" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I40" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J40" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K40" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L40" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M40" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N40" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O40" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P40" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R40" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S40" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T40" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>110.4929583612564</v>
+      </c>
+      <c r="N3" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.5579630241179461</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
@@ -34956,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>90.02410328955504</v>
       </c>
       <c r="N6" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>130.4949932455015</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>274.2838073416025</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O9" t="n">
-        <v>106.7946247341192</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L12" t="n">
         <v>395.2245205299612</v>
@@ -35506,7 +35506,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>141.7408772556873</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
         <v>167.0326721210326</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.40534134273582</v>
+        <v>51.3956407860353</v>
       </c>
       <c r="K15" t="n">
         <v>248.2184001629003</v>
@@ -35740,13 +35740,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O15" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P15" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N18" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O18" t="n">
-        <v>243.0391066718371</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P18" t="n">
         <v>327.7832499334201</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L21" t="n">
         <v>395.2245205299612</v>
@@ -36220,7 +36220,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K24" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L24" t="n">
         <v>395.2245205299612</v>
@@ -36451,7 +36451,7 @@
         <v>543.714571154376</v>
       </c>
       <c r="O24" t="n">
-        <v>429.0814793495699</v>
+        <v>243.0391066718371</v>
       </c>
       <c r="P24" t="n">
         <v>327.7832499334201</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L27" t="n">
-        <v>209.1821478522283</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M27" t="n">
         <v>514.5419032905515</v>
@@ -36691,10 +36691,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P27" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q27" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L28" t="n">
         <v>120.492579780375</v>
@@ -36770,7 +36770,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P28" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>248.2184001629003</v>
       </c>
       <c r="L30" t="n">
-        <v>209.1821478522283</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M30" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P30" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q30" t="n">
         <v>167.0326721210326</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L31" t="n">
         <v>120.492579780375</v>
@@ -37007,7 +37007,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P31" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K33" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L33" t="n">
         <v>395.2245205299612</v>
@@ -37159,13 +37159,13 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N33" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O33" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P33" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q33" t="n">
         <v>167.0326721210326</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L34" t="n">
         <v>120.492579780375</v>
@@ -37244,7 +37244,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P34" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M36" t="n">
-        <v>514.5419032905515</v>
+        <v>328.4995306128183</v>
       </c>
       <c r="N36" t="n">
-        <v>357.6721984766432</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O36" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P36" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q36" t="n">
         <v>167.0326721210326</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L37" t="n">
         <v>120.492579780375</v>
@@ -37481,7 +37481,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P37" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P39" t="n">
-        <v>327.7832499334201</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q39" t="n">
         <v>167.0326721210326</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L40" t="n">
         <v>120.492579780375</v>
@@ -37718,7 +37718,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P40" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K42" t="n">
         <v>248.2184001629003</v>
@@ -37867,10 +37867,10 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M42" t="n">
-        <v>398.9048719555545</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O42" t="n">
         <v>429.0814793495699</v>
@@ -38104,10 +38104,10 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M45" t="n">
-        <v>328.4995306128187</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N45" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O45" t="n">
         <v>429.0814793495699</v>
